--- a/trunk/560-modify/bug/BUG对应（2012-2-2）.xlsx
+++ b/trunk/560-modify/bug/BUG对应（2012-2-2）.xlsx
@@ -76,14 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个应该是新功能。这是最后一次接受这种修改建议，以后类似于这种修改，我们将拒绝。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>这个不是bug，如果要做，应该是新的需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,11 +88,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>发布二中，现在只检查了电话号码，地址，和预览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>没法修改，显示的是本条信息的发布人的会员名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发布二中，现在只检查了电话号码，地址，和预览</t>
+    <t>未修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个不是bug，应该是新需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -224,6 +224,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -232,21 +247,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,7 +545,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -557,13 +557,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" ht="24" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -583,98 +583,98 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="40.5">
-      <c r="A3" s="7">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="40.5">
-      <c r="A4" s="7">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="11" t="s">
-        <v>21</v>
+      <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="54">
-      <c r="A5" s="7">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="27">
-      <c r="A6" s="7">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="85.5" customHeight="1">
-      <c r="A7" s="7">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="11" t="s">
-        <v>17</v>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="65.25" customHeight="1">
-      <c r="A8" s="7">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="8"/>
+      <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="86.25" customHeight="1">
-      <c r="A9" s="7">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="11" t="s">
-        <v>16</v>
+      <c r="C9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
